--- a/Tables/aq_hmf_metrics_outlet_max_50_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_max_50_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,31 +547,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.518088949456595</v>
+        <v>2.229662158310362</v>
       </c>
       <c r="C2" t="n">
-        <v>178</v>
+        <v>151.8333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>114.59</v>
+        <v>52.90277777777778</v>
       </c>
       <c r="E2" t="n">
-        <v>2.033757351491249</v>
+        <v>1.050532015580561</v>
       </c>
       <c r="F2" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>5.066666666666666</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="H2" t="n">
         <v>233.7777777777778</v>
       </c>
       <c r="I2" t="n">
-        <v>0.320287321197144</v>
+        <v>0.3054977720201232</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3088801627128</v>
+        <v>0.2184547305237696</v>
       </c>
       <c r="K2" t="n">
         <v>0.4241077545018384</v>
@@ -580,22 +580,22 @@
         <v>0.302641395069888</v>
       </c>
       <c r="M2" t="n">
-        <v>0.25291474709256</v>
+        <v>0.134724760079616</v>
       </c>
       <c r="N2" t="n">
-        <v>0.322703314549056</v>
+        <v>0.1866492484226496</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6725636176613761</v>
+        <v>0.4595280519725281</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6469071954331392</v>
+        <v>0.5942568896780543</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.500406251724288</v>
+        <v>0.4011813028206144</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6344337377732256</v>
+        <v>0.406457750748672</v>
       </c>
       <c r="S2" t="n">
         <v>0.468274559550336</v>
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2416898095548996</v>
+        <v>0.3632736535445808</v>
       </c>
       <c r="C13" t="n">
-        <v>20.59090909090909</v>
+        <v>22.375</v>
       </c>
       <c r="D13" t="n">
-        <v>6.978517316017316</v>
+        <v>7.855952380952381</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05243789563642613</v>
+        <v>0.134010127012919</v>
       </c>
       <c r="F13" t="n">
         <v>100</v>
@@ -1324,25 +1324,25 @@
         <v>9.380000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>156.38</v>
+        <v>158.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05192386101597046</v>
+        <v>0.08962621751059201</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04642621756545024</v>
+        <v>0.11000852188272</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08728714301108073</v>
+        <v>0.111839084657496</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04058740064078147</v>
+        <v>0.10875610821024</v>
       </c>
       <c r="M13" t="n">
-        <v>0.09772030494273599</v>
+        <v>0.154348334773416</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04756792733520024</v>
+        <v>0.1093129954060032</v>
       </c>
       <c r="O13" t="n">
         <v>0.05468218674623707</v>
@@ -1351,16 +1351,16 @@
         <v>0.059207128219008</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.105569734820256</v>
+        <v>0.340318658481984</v>
       </c>
       <c r="R13" t="n">
-        <v>0.034313222036016</v>
+        <v>0.250040020825728</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04691855491507884</v>
+        <v>0.07749528042715199</v>
       </c>
       <c r="T13" t="n">
-        <v>0.05142701798196481</v>
+        <v>0.154638865619532</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1447,10 +1447,10 @@
         <v>2.895962542573363</v>
       </c>
       <c r="C15" t="n">
-        <v>23.41025641025641</v>
+        <v>31.75</v>
       </c>
       <c r="D15" t="n">
-        <v>9.997008547008546</v>
+        <v>13.53324829931973</v>
       </c>
       <c r="E15" t="n">
         <v>0.6705803186703563</v>
@@ -1462,7 +1462,7 @@
         <v>8.448979591836734</v>
       </c>
       <c r="H15" t="n">
-        <v>186.5681818181818</v>
+        <v>192.0357142857143</v>
       </c>
       <c r="I15" t="n">
         <v>0.80968058494176</v>
@@ -1927,46 +1927,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9769347416424802</v>
+        <v>0.331787555925095</v>
       </c>
       <c r="C22" t="n">
-        <v>45.7</v>
+        <v>41.45454545454545</v>
       </c>
       <c r="D22" t="n">
-        <v>17.21071428571428</v>
+        <v>16.96123188405797</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4186356387818895</v>
+        <v>0.14418635914045</v>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G22" t="n">
-        <v>2.85</v>
+        <v>3.909090909090909</v>
       </c>
       <c r="H22" t="n">
-        <v>200.9</v>
+        <v>234.2083333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1844391751792157</v>
+        <v>0.05325216333945998</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2144138032465679</v>
+        <v>0.15229932775344</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3534056134947899</v>
+        <v>0.1597482093011461</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3568100168257373</v>
+        <v>0.13502038795812</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3911462654551286</v>
+        <v>0.111456807228396</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2035417404896486</v>
+        <v>0.1316746958986368</v>
       </c>
       <c r="O22" t="n">
-        <v>2.446575546293404e-05</v>
+        <v>0.02130110999333882</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1975,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.022508495025408</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.007095069084096</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03063112583892587</v>
+        <v>0.00571642376378984</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_max_50_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_max_50_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -559,13 +559,13 @@
         <v>1.050532015580561</v>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
         <v>4.111111111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7777777777778</v>
+        <v>178.2222222222222</v>
       </c>
       <c r="I2" t="n">
         <v>0.3054977720201232</v>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03011143241664432</v>
+        <v>2.229662158310362</v>
       </c>
       <c r="C3" t="n">
-        <v>37.875</v>
+        <v>151.8333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>12.63216036414566</v>
+        <v>52.90277777777778</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01010423017981237</v>
+        <v>1.050532015580561</v>
       </c>
       <c r="F3" t="n">
         <v>88</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>5.046511627906977</v>
       </c>
       <c r="H3" t="n">
-        <v>230.0416666666667</v>
+        <v>266.7142857142857</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00249428376939168</v>
+        <v>0.3054977720201232</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005151020155053697</v>
+        <v>0.2184547305237696</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01390307330409984</v>
+        <v>0.3452974397185824</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01145046287151245</v>
+        <v>0.302641395069888</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0046393188795576</v>
+        <v>0.134724760079616</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00687834326695824</v>
+        <v>0.1866492484226496</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01242982706267232</v>
+        <v>0.4595280519725281</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01679900322566592</v>
+        <v>0.5942568896780543</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01707159251777616</v>
+        <v>0.4011813028206144</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01100854142570304</v>
+        <v>0.406457750748672</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002909712297143232</v>
+        <v>0.468274559550336</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00777215886651792</v>
+        <v>0.3153717431621568</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.627407685013376</v>
+        <v>0.03011143241664432</v>
       </c>
       <c r="C4" t="n">
-        <v>32.64285714285715</v>
+        <v>37.875</v>
       </c>
       <c r="D4" t="n">
-        <v>10.91875</v>
+        <v>12.63216036414566</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3792225882715258</v>
+        <v>0.01010423017981237</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>9.039999999999999</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4333333333333</v>
+        <v>230.0416666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.771903646229632</v>
+        <v>0.00249428376939168</v>
       </c>
       <c r="J4" t="n">
-        <v>0.634922599812928</v>
+        <v>0.004479330314373121</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5662128606475126</v>
+        <v>0.01390307330409984</v>
       </c>
       <c r="L4" t="n">
-        <v>0.265392282378384</v>
+        <v>0.01145046287151245</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04813025743340734</v>
+        <v>0.0046393188795576</v>
       </c>
       <c r="N4" t="n">
-        <v>0.022875481357344</v>
+        <v>0.004263973414505281</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003147764097792416</v>
+        <v>0.01242982706267232</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00305087970616128</v>
+        <v>0.01679900322566592</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.015168768386688</v>
+        <v>0.01707159251777616</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04942082603404799</v>
+        <v>0.01100854142570304</v>
       </c>
       <c r="S4" t="n">
-        <v>0.403603412611392</v>
+        <v>0.00154195423801776</v>
       </c>
       <c r="T4" t="n">
-        <v>0.603452389175552</v>
+        <v>0.00777215886651792</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.613857805650413</v>
+        <v>1.557943628618916</v>
       </c>
       <c r="C5" t="n">
-        <v>28.83870967741936</v>
+        <v>39.73913043478261</v>
       </c>
       <c r="D5" t="n">
-        <v>14.87795698924731</v>
+        <v>22.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8522581531760033</v>
+        <v>0.2545330732633128</v>
       </c>
       <c r="F5" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G5" t="n">
-        <v>3.238095238095238</v>
+        <v>5.375</v>
       </c>
       <c r="H5" t="n">
-        <v>213.2857142857143</v>
+        <v>158.2608695652174</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.6867681474504282</v>
       </c>
       <c r="J5" t="n">
-        <v>0.139210148581056</v>
+        <v>0.489734522198784</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4095078149296512</v>
+        <v>0.3698925671303215</v>
       </c>
       <c r="L5" t="n">
-        <v>1.079665050785904</v>
+        <v>0.215543305623744</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7287247593253152</v>
+        <v>0.04813025743340734</v>
       </c>
       <c r="N5" t="n">
-        <v>0.490293739466496</v>
+        <v>0.01069398171261504</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5262933510754559</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05831005051872001</v>
+        <v>0.00305087970616128</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.379871629812864</v>
+        <v>0.0006083817858316801</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4320163099550592</v>
+        <v>0.0116181756252072</v>
       </c>
       <c r="S5" t="n">
-        <v>0.031665677784192</v>
+        <v>0.2934778575694255</v>
       </c>
       <c r="T5" t="n">
-        <v>0.14557124500128</v>
+        <v>0.603452389175552</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.492787479444283</v>
+        <v>1.613857805650413</v>
       </c>
       <c r="C6" t="n">
-        <v>69.92307692307692</v>
+        <v>32.57142857142857</v>
       </c>
       <c r="D6" t="n">
-        <v>35.87435897435898</v>
+        <v>15.65602836879433</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7770512132977182</v>
+        <v>0.8522581531760033</v>
       </c>
       <c r="F6" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G6" t="n">
-        <v>2.777777777777778</v>
+        <v>5.755102040816326</v>
       </c>
       <c r="H6" t="n">
-        <v>172.4615384615385</v>
+        <v>214.2926829268293</v>
       </c>
       <c r="I6" t="n">
-        <v>0.349912729731168</v>
+        <v>0.03714574487467559</v>
       </c>
       <c r="J6" t="n">
-        <v>0.672074302552128</v>
+        <v>0.223127689817088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.505843086271488</v>
+        <v>0.4095078149296512</v>
       </c>
       <c r="L6" t="n">
-        <v>0.523757456104512</v>
+        <v>1.079665050785904</v>
       </c>
       <c r="M6" t="n">
-        <v>0.348820508505168</v>
+        <v>0.7287247593253152</v>
       </c>
       <c r="N6" t="n">
-        <v>0.186429056623488</v>
+        <v>0.5440156453108408</v>
       </c>
       <c r="O6" t="n">
-        <v>0.094111606012032</v>
+        <v>0.5262933510754559</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.1131541190136</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.379871629812864</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4320163099550592</v>
       </c>
       <c r="S6" t="n">
-        <v>0.127385033440896</v>
+        <v>0.06832935989856</v>
       </c>
       <c r="T6" t="n">
-        <v>0.215597673969216</v>
+        <v>0.171749603346048</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.772360490084912</v>
+        <v>0.2630413456944061</v>
       </c>
       <c r="C7" t="n">
-        <v>31.51724137931035</v>
+        <v>28.5</v>
       </c>
       <c r="D7" t="n">
-        <v>11.18333333333333</v>
+        <v>7.629947916666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6435696586254769</v>
+        <v>0.05223181994867501</v>
       </c>
       <c r="F7" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>6.708333333333333</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>217.6428571428571</v>
+        <v>246.98</v>
       </c>
       <c r="I7" t="n">
-        <v>0.555966817343424</v>
+        <v>0.0077311787261184</v>
       </c>
       <c r="J7" t="n">
-        <v>0.793546778422944</v>
+        <v>0.0198526013491008</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8063062017608348</v>
+        <v>0.08796580823987712</v>
       </c>
       <c r="L7" t="n">
-        <v>0.940218982420032</v>
+        <v>0.0605282790139776</v>
       </c>
       <c r="M7" t="n">
-        <v>1.26549120129264</v>
+        <v>0.1253391289623736</v>
       </c>
       <c r="N7" t="n">
-        <v>0.526258399996224</v>
+        <v>0.05600970707409435</v>
       </c>
       <c r="O7" t="n">
-        <v>1.033311181954464</v>
+        <v>0.07725997742608716</v>
       </c>
       <c r="P7" t="n">
-        <v>0.479773464617664</v>
+        <v>0.04413622285416961</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.742454125765632</v>
+        <v>0.04167270947722487</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4532362751927854</v>
+        <v>0.1160268064674768</v>
       </c>
       <c r="S7" t="n">
-        <v>0.334827455589312</v>
+        <v>0.09569780249117761</v>
       </c>
       <c r="T7" t="n">
-        <v>0.385733217059064</v>
+        <v>0.0153808049340288</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,53 +957,53 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.7935027621432</v>
+        <v>1.492787479444283</v>
       </c>
       <c r="C8" t="n">
-        <v>31.96428571428572</v>
+        <v>69.92307692307692</v>
       </c>
       <c r="D8" t="n">
-        <v>11.79137931034483</v>
+        <v>35.87435897435898</v>
       </c>
       <c r="E8" t="n">
-        <v>1.148984136483669</v>
+        <v>0.7770512132977182</v>
       </c>
       <c r="F8" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G8" t="n">
-        <v>4.821428571428571</v>
+        <v>3.457142857142857</v>
       </c>
       <c r="H8" t="n">
-        <v>246.7142857142857</v>
+        <v>172.4615384615385</v>
       </c>
       <c r="I8" t="n">
-        <v>0.68137128962784</v>
+        <v>0.349912729731168</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04713433379072</v>
+        <v>0.672074302552128</v>
       </c>
       <c r="K8" t="n">
-        <v>0.273241712255904</v>
+        <v>0.505843086271488</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2445107600912256</v>
+        <v>0.523757456104512</v>
       </c>
       <c r="M8" t="n">
-        <v>1.427465623251665</v>
+        <v>0.348820508505168</v>
       </c>
       <c r="N8" t="n">
-        <v>2.563677548521397</v>
+        <v>0.186429056623488</v>
       </c>
       <c r="O8" t="n">
-        <v>0.835865339562466</v>
+        <v>0.094111606012032</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2691233100864</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05137808647104</v>
+        <v>0.127385033440896</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1078869476844889</v>
+        <v>0.215597673969216</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.205219093129974</v>
+        <v>1.772360490084912</v>
       </c>
       <c r="C9" t="n">
-        <v>32.64285714285715</v>
+        <v>25.88571428571429</v>
       </c>
       <c r="D9" t="n">
-        <v>8.113779375386518</v>
+        <v>11.18333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3967162681829625</v>
+        <v>0.6435696586254769</v>
       </c>
       <c r="F9" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G9" t="n">
-        <v>4.321428571428571</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>188.7297297297297</v>
+        <v>177.0833333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.304435550470464</v>
+        <v>0.3968771027400627</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2765923557182784</v>
+        <v>0.793546778422944</v>
       </c>
       <c r="K9" t="n">
-        <v>0.23594162924052</v>
+        <v>0.8063062017608348</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2025030579622848</v>
+        <v>0.940218982420032</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8552529088070401</v>
+        <v>1.26549120129264</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8701904623618855</v>
+        <v>0.3425205764736</v>
       </c>
       <c r="O9" t="n">
-        <v>0.334272121774848</v>
+        <v>0.229733443791936</v>
       </c>
       <c r="P9" t="n">
-        <v>0.342031261364352</v>
+        <v>0.2624278483415266</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05012625531654774</v>
+        <v>0.1419472549734143</v>
       </c>
       <c r="R9" t="n">
-        <v>0.175725288608688</v>
+        <v>0.4532362751927854</v>
       </c>
       <c r="S9" t="n">
-        <v>0.168704975999616</v>
+        <v>0.14740617666096</v>
       </c>
       <c r="T9" t="n">
-        <v>0.331347881479104</v>
+        <v>0.256401117245952</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.20978769472126</v>
+        <v>0.953797476701664</v>
       </c>
       <c r="C10" t="n">
-        <v>37.45833333333334</v>
+        <v>31.51724137931035</v>
       </c>
       <c r="D10" t="n">
-        <v>27.02083333333333</v>
+        <v>11.18333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.407769387083184</v>
+        <v>0.3291833233573157</v>
       </c>
       <c r="F10" t="n">
-        <v>87.75500000000001</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>4.261904761904762</v>
+        <v>9.84</v>
       </c>
       <c r="H10" t="n">
-        <v>185.34375</v>
+        <v>212.4137931034483</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2676675976363873</v>
+        <v>0.555966817343424</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3834150867290016</v>
+        <v>0.3446937112234955</v>
       </c>
       <c r="K10" t="n">
-        <v>0.517559464720704</v>
+        <v>0.3932992519358112</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5299540167423865</v>
+        <v>0.4901591778114528</v>
       </c>
       <c r="M10" t="n">
-        <v>0.165248702608896</v>
+        <v>0.4459087814317921</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0406620855785088</v>
+        <v>0.526258399996224</v>
       </c>
       <c r="O10" t="n">
-        <v>1.412652720398976</v>
+        <v>1.033311181954464</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08685343189152001</v>
+        <v>0.479773464617664</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.114499735564032</v>
+        <v>0.742454125765632</v>
       </c>
       <c r="R10" t="n">
-        <v>0.298604545418592</v>
+        <v>0.4532362751927854</v>
       </c>
       <c r="S10" t="n">
-        <v>0.142941176289072</v>
+        <v>0.334827455589312</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3912741546314008</v>
+        <v>0.385733217059064</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6120219936898734</v>
+        <v>4.84582514675742</v>
       </c>
       <c r="C11" t="n">
-        <v>28.5</v>
+        <v>31.96428571428572</v>
       </c>
       <c r="D11" t="n">
-        <v>7.629947916666667</v>
+        <v>16.82828282828283</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1216763417207833</v>
+        <v>1.76475401875122</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>4.821428571428571</v>
       </c>
       <c r="H11" t="n">
-        <v>246.98</v>
+        <v>246.7142857142857</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0077311787261184</v>
+        <v>0.68137128962784</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08703136465851927</v>
+        <v>1.04713433379072</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2851239141588096</v>
+        <v>0.7455065200185599</v>
       </c>
       <c r="L11" t="n">
-        <v>0.134989805763792</v>
+        <v>0.65609000898336</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1629500866314048</v>
+        <v>2.057744789784</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3256729510741473</v>
+        <v>3.057534391647053</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1670847993045504</v>
+        <v>0.90453393052416</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05037721465666909</v>
+        <v>0.2691233100864</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04167270947722487</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1160268064674768</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.09569780249117761</v>
+        <v>0.01764979987187096</v>
       </c>
       <c r="T11" t="n">
-        <v>0.022508495025408</v>
+        <v>0.1078869476844889</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.465916781825434</v>
+        <v>0.9030908392972032</v>
       </c>
       <c r="C12" t="n">
-        <v>60.86666666666667</v>
+        <v>39.73913043478261</v>
       </c>
       <c r="D12" t="n">
-        <v>25.09055555555556</v>
+        <v>13.73812974465149</v>
       </c>
       <c r="E12" t="n">
-        <v>1.400869468884829</v>
+        <v>0.1899348012859075</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G12" t="n">
-        <v>8.959183673469388</v>
+        <v>5.291666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>255.9387755102041</v>
+        <v>236.5416666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02901312387767808</v>
+        <v>0.1705451542046338</v>
       </c>
       <c r="J12" t="n">
-        <v>0.039879181403712</v>
+        <v>0.3390733515289476</v>
       </c>
       <c r="K12" t="n">
-        <v>0.401788869081264</v>
+        <v>0.1555532732299392</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9841961778636961</v>
+        <v>0.167699161608384</v>
       </c>
       <c r="M12" t="n">
-        <v>1.479933547920576</v>
+        <v>0.376188612861535</v>
       </c>
       <c r="N12" t="n">
-        <v>1.094054215933056</v>
+        <v>0.512465830354296</v>
       </c>
       <c r="O12" t="n">
-        <v>1.619947571323968</v>
+        <v>0.260572528552291</v>
       </c>
       <c r="P12" t="n">
-        <v>1.415180848463424</v>
+        <v>0.148588688174976</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.960403230676512</v>
+        <v>0.094111606012032</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7198314572147329</v>
+        <v>0.3698777393997382</v>
       </c>
       <c r="S12" t="n">
-        <v>0.670239370892448</v>
+        <v>0.1742534695363289</v>
       </c>
       <c r="T12" t="n">
-        <v>0.142635354345792</v>
+        <v>0.2187715620570075</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3632736535445808</v>
+        <v>1.20978769472126</v>
       </c>
       <c r="C13" t="n">
-        <v>22.375</v>
+        <v>43.52380952380953</v>
       </c>
       <c r="D13" t="n">
-        <v>7.855952380952381</v>
+        <v>31.78571428571428</v>
       </c>
       <c r="E13" t="n">
-        <v>0.134010127012919</v>
+        <v>0.407769387083184</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>87.75500000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>9.380000000000001</v>
+        <v>3.883720930232558</v>
       </c>
       <c r="H13" t="n">
-        <v>158.2</v>
+        <v>204.4285714285714</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08962621751059201</v>
+        <v>0.2676675976363873</v>
       </c>
       <c r="J13" t="n">
-        <v>0.11000852188272</v>
+        <v>0.3834150867290016</v>
       </c>
       <c r="K13" t="n">
-        <v>0.111839084657496</v>
+        <v>0.517559464720704</v>
       </c>
       <c r="L13" t="n">
-        <v>0.10875610821024</v>
+        <v>0.5299540167423865</v>
       </c>
       <c r="M13" t="n">
-        <v>0.154348334773416</v>
+        <v>0.165248702608896</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1093129954060032</v>
+        <v>0.0406620855785088</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05468218674623707</v>
+        <v>1.412652720398976</v>
       </c>
       <c r="P13" t="n">
-        <v>0.059207128219008</v>
+        <v>0.08685343189152001</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.340318658481984</v>
+        <v>0.114499735564032</v>
       </c>
       <c r="R13" t="n">
-        <v>0.250040020825728</v>
+        <v>0.298604545418592</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07749528042715199</v>
+        <v>0.142941176289072</v>
       </c>
       <c r="T13" t="n">
-        <v>0.154638865619532</v>
+        <v>0.3912741546314008</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.772360490084912</v>
+        <v>0.2597610809961216</v>
       </c>
       <c r="C14" t="n">
-        <v>22.5</v>
+        <v>60.8</v>
       </c>
       <c r="D14" t="n">
-        <v>9.199583333333333</v>
+        <v>35.88888888888889</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6435696586254769</v>
+        <v>0.1574278937818137</v>
       </c>
       <c r="F14" t="n">
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>11.66</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>169.1794871794872</v>
+        <v>246.98</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3968771027400627</v>
+        <v>0.01160900096690907</v>
       </c>
       <c r="J14" t="n">
-        <v>0.793546778422944</v>
+        <v>0.04298408965318629</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8063062017608348</v>
+        <v>0.1273469484148933</v>
       </c>
       <c r="L14" t="n">
-        <v>0.940218982420032</v>
+        <v>0.06387091285402834</v>
       </c>
       <c r="M14" t="n">
-        <v>1.26549120129264</v>
+        <v>0.1440696592597752</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3425205764736</v>
+        <v>0.1243180314292121</v>
       </c>
       <c r="O14" t="n">
-        <v>0.21040549697664</v>
+        <v>0.07236603479446012</v>
       </c>
       <c r="P14" t="n">
-        <v>0.435245789676096</v>
+        <v>0.04272821862730861</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.340318658481984</v>
+        <v>0.03374693389612106</v>
       </c>
       <c r="R14" t="n">
-        <v>0.594844067809152</v>
+        <v>0.1081522991906081</v>
       </c>
       <c r="S14" t="n">
-        <v>0.14740617666096</v>
+        <v>0.07136477375216141</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3029105183799744</v>
+        <v>0.01570163254065927</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.895962542573363</v>
+        <v>3.465916781825434</v>
       </c>
       <c r="C15" t="n">
-        <v>31.75</v>
+        <v>60.86666666666667</v>
       </c>
       <c r="D15" t="n">
-        <v>13.53324829931973</v>
+        <v>27.68055555555556</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6705803186703563</v>
+        <v>1.400869468884829</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>97.872</v>
       </c>
       <c r="G15" t="n">
-        <v>8.448979591836734</v>
+        <v>6.404255319148936</v>
       </c>
       <c r="H15" t="n">
-        <v>192.0357142857143</v>
+        <v>262.5833333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>0.80968058494176</v>
+        <v>0.0136029600370944</v>
       </c>
       <c r="J15" t="n">
-        <v>0.58279468324392</v>
+        <v>0.04298408965318629</v>
       </c>
       <c r="K15" t="n">
-        <v>1.088236802967552</v>
+        <v>0.401788869081264</v>
       </c>
       <c r="L15" t="n">
-        <v>1.07710488423216</v>
+        <v>0.9841961778636961</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4911500409076801</v>
+        <v>1.479933547920576</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1427924159152</v>
+        <v>1.094054215933056</v>
       </c>
       <c r="O15" t="n">
-        <v>0.51745072802976</v>
+        <v>1.619947571323968</v>
       </c>
       <c r="P15" t="n">
-        <v>0.27972513745344</v>
+        <v>1.415180848463424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.62517556111552</v>
+        <v>0.960403230676512</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3409914667572</v>
+        <v>0.7198314572147329</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3013051884254031</v>
+        <v>0.670239370892448</v>
       </c>
       <c r="T15" t="n">
-        <v>0.62724080566728</v>
+        <v>0.142635354345792</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,65 +1509,65 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.060074734720427</v>
+        <v>8.590008295366848</v>
       </c>
       <c r="C16" t="n">
-        <v>32.32142857142857</v>
+        <v>37.875</v>
       </c>
       <c r="D16" t="n">
-        <v>22.65476190476191</v>
+        <v>25.32291666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7502027170564488</v>
+        <v>4.931346214382716</v>
       </c>
       <c r="F16" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="G16" t="n">
-        <v>2.142857142857143</v>
+        <v>3.978260869565217</v>
       </c>
       <c r="H16" t="n">
-        <v>258.3571428571428</v>
+        <v>198.8666666666667</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3.12183039700224</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.5321301813072</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.71069999027648</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04974703610688001</v>
+        <v>3.12917012364096</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4504461267795097</v>
+        <v>3.996409196678739</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7339038539347621</v>
+        <v>4.105149885295201</v>
       </c>
       <c r="O16" t="n">
-        <v>0.180530091139776</v>
+        <v>5.43384428819904</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0061164388656</v>
+        <v>17.20676581670592</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.003180548210112</v>
+        <v>1.40922751463424</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2.12362757413632</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.20616174429632</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3.66130030494816</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.369615232381027</v>
+        <v>1.772360490084912</v>
       </c>
       <c r="C17" t="n">
-        <v>27.66666666666667</v>
+        <v>26.82352941176471</v>
       </c>
       <c r="D17" t="n">
-        <v>17.81313131313131</v>
+        <v>9.199583333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9587684733797062</v>
+        <v>0.6435696586254769</v>
       </c>
       <c r="F17" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>1.727272727272727</v>
+        <v>12.26530612244898</v>
       </c>
       <c r="H17" t="n">
-        <v>248.6363636363636</v>
+        <v>169.1794871794872</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.3968771027400627</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.793546778422944</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.8063062017608348</v>
       </c>
       <c r="L17" t="n">
-        <v>0.019817261924544</v>
+        <v>0.940218982420032</v>
       </c>
       <c r="M17" t="n">
-        <v>0.577310276394432</v>
+        <v>1.26549120129264</v>
       </c>
       <c r="N17" t="n">
-        <v>0.889180259653793</v>
+        <v>0.8701904623618855</v>
       </c>
       <c r="O17" t="n">
-        <v>0.218452012106496</v>
+        <v>0.334272121774848</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.435245789676096</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.2796435849352321</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.594844067809152</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.168704975999616</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.331347881479104</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.59761383169472</v>
+        <v>2.895962542573363</v>
       </c>
       <c r="C18" t="n">
-        <v>20.25581395348837</v>
+        <v>31.75</v>
       </c>
       <c r="D18" t="n">
-        <v>6.910492801771871</v>
+        <v>13.53324829931973</v>
       </c>
       <c r="E18" t="n">
-        <v>0.49635734530535</v>
+        <v>0.6705803186703563</v>
       </c>
       <c r="F18" t="n">
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>8.446808510638299</v>
+        <v>8.6</v>
       </c>
       <c r="H18" t="n">
-        <v>118.6122448979592</v>
+        <v>192.0357142857143</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8005544698089599</v>
+        <v>0.80968058494176</v>
       </c>
       <c r="J18" t="n">
-        <v>0.55486294575768</v>
+        <v>0.58279468324392</v>
       </c>
       <c r="K18" t="n">
-        <v>0.244902212178624</v>
+        <v>1.088236802967552</v>
       </c>
       <c r="L18" t="n">
-        <v>0.434022501902976</v>
+        <v>1.07710488423216</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05642575812433517</v>
+        <v>0.4911500409076801</v>
       </c>
       <c r="N18" t="n">
-        <v>0.146916861551712</v>
+        <v>2.1427924159152</v>
       </c>
       <c r="O18" t="n">
-        <v>0.141228573406704</v>
+        <v>0.51745072802976</v>
       </c>
       <c r="P18" t="n">
-        <v>0.06373329297955201</v>
+        <v>0.27972513745344</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.027156988563264</v>
+        <v>2.62517556111552</v>
       </c>
       <c r="R18" t="n">
-        <v>0.089352434056608</v>
+        <v>0.3409914667572</v>
       </c>
       <c r="S18" t="n">
-        <v>0.44160688609632</v>
+        <v>0.3013051884254031</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7420226866370477</v>
+        <v>0.62724080566728</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.895962542573363</v>
+        <v>0.6120219936898734</v>
       </c>
       <c r="C19" t="n">
-        <v>31.75</v>
+        <v>20.75</v>
       </c>
       <c r="D19" t="n">
-        <v>13.53324829931973</v>
+        <v>4.582735635576545</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6705803186703563</v>
+        <v>0.1216763417207833</v>
       </c>
       <c r="F19" t="n">
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>6.454545454545454</v>
+        <v>5.28</v>
       </c>
       <c r="H19" t="n">
-        <v>192.0357142857143</v>
+        <v>242.94</v>
       </c>
       <c r="I19" t="n">
-        <v>0.80968058494176</v>
+        <v>0.0056026580008896</v>
       </c>
       <c r="J19" t="n">
-        <v>0.58279468324392</v>
+        <v>0.08703136465851927</v>
       </c>
       <c r="K19" t="n">
-        <v>1.088236802967552</v>
+        <v>0.2851239141588096</v>
       </c>
       <c r="L19" t="n">
-        <v>1.07710488423216</v>
+        <v>0.134989805763792</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4911500409076801</v>
+        <v>0.1629500866314048</v>
       </c>
       <c r="N19" t="n">
-        <v>2.1427924159152</v>
+        <v>0.3256729510741473</v>
       </c>
       <c r="O19" t="n">
-        <v>0.51745072802976</v>
+        <v>0.1670847993045504</v>
       </c>
       <c r="P19" t="n">
-        <v>0.27972513745344</v>
+        <v>0.05037721465666909</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.62517556111552</v>
+        <v>0.035789905133568</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3409914667572</v>
+        <v>0.044201464868736</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3013051884254031</v>
+        <v>0.01311413424295565</v>
       </c>
       <c r="T19" t="n">
-        <v>0.62724080566728</v>
+        <v>0.022508495025408</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,53 +1785,53 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1202757813101551</v>
+        <v>1.369615232381027</v>
       </c>
       <c r="C20" t="n">
-        <v>39.34782608695652</v>
+        <v>37.83333333333334</v>
       </c>
       <c r="D20" t="n">
-        <v>20.95652173913043</v>
+        <v>17.81313131313131</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06381626380242449</v>
+        <v>0.9587684733797062</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="G20" t="n">
-        <v>2.130434782608696</v>
+        <v>2.90625</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6086956521739</v>
+        <v>251.8139534883721</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.0518429358248256</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0347658385120704</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02315794962495535</v>
+        <v>0.03216870447067717</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0515784726586368</v>
+        <v>0.577310276394432</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06137506599470401</v>
+        <v>0.889180259653793</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0453734910589824</v>
+        <v>0.218452012106496</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0060919731101376</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.0012966850395072</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.875516030505864</v>
+        <v>1.59761383169472</v>
       </c>
       <c r="C21" t="n">
-        <v>26.55882352941176</v>
+        <v>45.7</v>
       </c>
       <c r="D21" t="n">
-        <v>13.17401960784314</v>
+        <v>17.21071428571428</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9848941714754174</v>
+        <v>0.49635734530535</v>
       </c>
       <c r="F21" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>4.75</v>
+        <v>7.04</v>
       </c>
       <c r="H21" t="n">
-        <v>221.9714285714286</v>
+        <v>233.8837209302326</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1467278079867753</v>
+        <v>0.8005544698089599</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1725994664305314</v>
+        <v>0.6492989083762212</v>
       </c>
       <c r="K21" t="n">
-        <v>0.49700434667904</v>
+        <v>0.643752278014464</v>
       </c>
       <c r="L21" t="n">
-        <v>1.116702177583805</v>
+        <v>0.434022501902976</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7881309498274036</v>
+        <v>0.3911462654551286</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5231594043043201</v>
+        <v>0.3652762599938587</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8312240418350401</v>
+        <v>0.02039220717791227</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5082026724649729</v>
+        <v>0.0025525938199104</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.270387374118624</v>
+        <v>0.004648493537856</v>
       </c>
       <c r="R21" t="n">
-        <v>0.8210707533181442</v>
+        <v>0.010275617294208</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09991814530844161</v>
+        <v>0.44160688609632</v>
       </c>
       <c r="T21" t="n">
-        <v>0.163675904043456</v>
+        <v>0.7420226866370477</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,65 +1923,65 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.331787555925095</v>
+        <v>1.453021216911936</v>
       </c>
       <c r="C22" t="n">
-        <v>41.45454545454545</v>
+        <v>45.7</v>
       </c>
       <c r="D22" t="n">
-        <v>16.96123188405797</v>
+        <v>18.98263888888889</v>
       </c>
       <c r="E22" t="n">
-        <v>0.14418635914045</v>
+        <v>1.087648636321082</v>
       </c>
       <c r="F22" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>3.909090909090909</v>
+        <v>6.92</v>
       </c>
       <c r="H22" t="n">
-        <v>234.2083333333333</v>
+        <v>249</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05325216333945998</v>
+        <v>0.4206664235800931</v>
       </c>
       <c r="J22" t="n">
-        <v>0.15229932775344</v>
+        <v>0.6492989083762212</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1597482093011461</v>
+        <v>0.643752278014464</v>
       </c>
       <c r="L22" t="n">
-        <v>0.13502038795812</v>
+        <v>0.3568100168257373</v>
       </c>
       <c r="M22" t="n">
-        <v>0.111456807228396</v>
+        <v>0.6078652865496961</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1316746958986368</v>
+        <v>0.9330213150065776</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02130110999333882</v>
+        <v>0.30628067619492</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.005064411380716801</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.009786302184960001</v>
       </c>
       <c r="R22" t="n">
-        <v>0.022508495025408</v>
+        <v>0.024256048987008</v>
       </c>
       <c r="S22" t="n">
-        <v>0.007095069084096</v>
+        <v>0.194074605205488</v>
       </c>
       <c r="T22" t="n">
-        <v>0.00571642376378984</v>
+        <v>0.336519670342128</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.771538168859648</v>
+        <v>2.895962542573363</v>
       </c>
       <c r="C23" t="n">
-        <v>29.29032258064516</v>
+        <v>21.23255813953488</v>
       </c>
       <c r="D23" t="n">
-        <v>6.689938556067587</v>
+        <v>4.184261904761906</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5551907437313957</v>
+        <v>0.6705803186703563</v>
       </c>
       <c r="F23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>5.578947368421052</v>
+        <v>7.375</v>
       </c>
       <c r="H23" t="n">
-        <v>163</v>
+        <v>182.7234042553191</v>
       </c>
       <c r="I23" t="n">
-        <v>0.429491806446976</v>
+        <v>0.80968058494176</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5440776252246721</v>
+        <v>0.58279468324392</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7275789464444927</v>
+        <v>1.088236802967552</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6311743085929158</v>
+        <v>1.07710488423216</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7400891027376</v>
+        <v>0.4911500409076801</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2354828963256</v>
+        <v>2.1427924159152</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4025399677739614</v>
+        <v>0.51745072802976</v>
       </c>
       <c r="P23" t="n">
-        <v>0.08114475561696001</v>
+        <v>0.27972513745344</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.202087140119424</v>
+        <v>2.62517556111552</v>
       </c>
       <c r="R23" t="n">
-        <v>0.476592916407552</v>
+        <v>0.3409914667572</v>
       </c>
       <c r="S23" t="n">
-        <v>0.27462810506544</v>
+        <v>0.3013051884254031</v>
       </c>
       <c r="T23" t="n">
-        <v>0.432939018446784</v>
+        <v>0.62724080566728</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.117430205882539</v>
+        <v>0.1166973986416545</v>
       </c>
       <c r="C24" t="n">
-        <v>31.3448275862069</v>
+        <v>39.69565217391305</v>
       </c>
       <c r="D24" t="n">
-        <v>18.50574712643678</v>
+        <v>21.17246376811594</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5373867208264009</v>
+        <v>0.0642167930396756</v>
       </c>
       <c r="F24" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>3.861111111111111</v>
+        <v>3.458333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>255.4473684210526</v>
+        <v>246.4782608695652</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3945949959847237</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4104375136372224</v>
+        <v>0.0202494902710464</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6554820720294459</v>
+        <v>0.0069482745513216</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4546600862165534</v>
+        <v>0.0217684059226704</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09818923192243201</v>
+        <v>0.0529660305041472</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1647744164637185</v>
+        <v>0.05507112787452228</v>
       </c>
       <c r="O24" t="n">
-        <v>0.364662085167072</v>
+        <v>0.0321663519941904</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0860573538483973</v>
+        <v>0.006483425197536001</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.07954880829324605</v>
+        <v>0.0001957260436992</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1027336644470551</v>
+        <v>0.0287961941792448</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04280039260592256</v>
+        <v>0.008758740455539201</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2507739934896</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.633151397396263</v>
+        <v>0.7192297808581759</v>
       </c>
       <c r="C25" t="n">
-        <v>21.11627906976744</v>
+        <v>33.81481481481482</v>
       </c>
       <c r="D25" t="n">
-        <v>4.443041712809155</v>
+        <v>12.40917107583774</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5975840470743085</v>
+        <v>0.2609393207115648</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G25" t="n">
-        <v>7.142857142857143</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="H25" t="n">
-        <v>177.0666666666667</v>
+        <v>147.3703703703704</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6637945758351158</v>
+        <v>0.349912729731168</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5525183108592001</v>
+        <v>0.3013150935895579</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9970189959887071</v>
+        <v>0.187733896914816</v>
       </c>
       <c r="L25" t="n">
-        <v>0.98588256743664</v>
+        <v>0.1818250462773818</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4616831971963483</v>
+        <v>0.087995167146432</v>
       </c>
       <c r="N25" t="n">
-        <v>1.11292003181184</v>
+        <v>0.00244657554624</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4373253788904</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.45016990050816</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.131456615884288</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2955463259857921</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2907929792102401</v>
+        <v>0.127385033440896</v>
       </c>
       <c r="T25" t="n">
-        <v>0.50413048338912</v>
+        <v>0.215597673969216</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,67 +2199,550 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.492787479444283</v>
+      </c>
+      <c r="C26" t="n">
+        <v>69.92307692307692</v>
+      </c>
+      <c r="D26" t="n">
+        <v>35.87435897435898</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7770512132977182</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.076923076923077</v>
+      </c>
+      <c r="H26" t="n">
+        <v>172.4615384615385</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.342561352732704</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.672074302552128</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.505843086271488</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.523757456104512</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.348820508505168</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.186429056623488</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.094111606012032</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.077801102370432</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.838009043630129</v>
+      </c>
+      <c r="C27" t="n">
+        <v>34.53846153846154</v>
+      </c>
+      <c r="D27" t="n">
+        <v>16.1025641025641</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.190877035304763</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H27" t="n">
+        <v>218.3235294117647</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.336474083917103</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.566843439247779</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.858011022332864</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.35401343807392</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.858102169264979</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.82514535749504</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.06300686893504</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.22401268058336</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.5423242460832</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.22818092421248</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.368454277263744</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.17802612551456</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9769347416424802</v>
+      </c>
+      <c r="C28" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.21071428571428</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4186356387818895</v>
+      </c>
+      <c r="F28" t="n">
+        <v>40</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H28" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1844391751792157</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2144138032465679</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3534056134947899</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3568100168257373</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.3911462654551286</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2035417404896486</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.446575546293404e-05</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.03063112583892587</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.771538168859648</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.357264957264958</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5551907437313957</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.82600000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.454545454545454</v>
+      </c>
+      <c r="H29" t="n">
+        <v>163.7333333333333</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.429491806446976</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5440776252246721</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.7275789464444927</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.6311743085929158</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.7400891027376</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.2354828963256</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.4025399677739614</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.139874219086464</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.202087140119424</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.421789624171776</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.27462810506544</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.432939018446784</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.117430205882539</v>
+      </c>
+      <c r="C30" t="n">
+        <v>35.07692307692308</v>
+      </c>
+      <c r="D30" t="n">
+        <v>25.19871794871795</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5373867208264009</v>
+      </c>
+      <c r="F30" t="n">
+        <v>92</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.608695652173913</v>
+      </c>
+      <c r="H30" t="n">
+        <v>255.4473684210526</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.3945949959847237</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4104375136372224</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6554820720294459</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.4546600862165534</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.136233481666464</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.128812202509536</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.7363580750295841</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.4007490744741121</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.301112285353488</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.476592916407552</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.158130332805312</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.331725061875816</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.953797476701664</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31.51724137931035</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10.03108108108108</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3291833233573157</v>
+      </c>
+      <c r="F31" t="n">
+        <v>96</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.708333333333333</v>
+      </c>
+      <c r="H31" t="n">
+        <v>217.6428571428571</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.555966817343424</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.2327671974692736</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3932992519358112</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.2118408212971008</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.4459087814317921</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.526258399996224</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.033311181954464</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.479773464617664</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.742454125765632</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.3612124136468736</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.334827455589312</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.385733217059064</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.633151397396263</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21.11627906976744</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.443041712809155</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5975840470743085</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>181.875</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6637945758351158</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5525183108592001</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9970189959887071</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.98588256743664</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4616831971963483</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.11292003181184</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.4373253788904</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.45016990050816</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.131456615884288</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.2955463259857921</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.2907929792102401</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.50413048338912</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>1.59761383169472</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>20.25581395348837</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>6.910492801771871</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E33" t="n">
         <v>0.49635734530535</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F33" t="n">
         <v>89.583</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G33" t="n">
         <v>2.930232558139535</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>110.5116279069767</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>0.8005544698089599</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J33" t="n">
         <v>0.55486294575768</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K33" t="n">
         <v>0.244902212178624</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>0.434022501902976</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.04403835983232</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>0.44160688609632</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T33" t="n">
         <v>0.7420226866370477</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>max</t>
         </is>
